--- a/tests/Templates/GroupTagTests_FormulasInGroupRow.xlsx
+++ b/tests/Templates/GroupTagTests_FormulasInGroupRow.xlsx
@@ -94,7 +94,6 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
@@ -142,7 +141,6 @@
       <color indexed="9"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="5">
